--- a/Data/Output/roundRobinOutput.xlsx
+++ b/Data/Output/roundRobinOutput.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="403">
   <si>
     <t>process</t>
   </si>
@@ -1205,6 +1206,24 @@
   </si>
   <si>
     <t>1163</t>
+  </si>
+  <si>
+    <t>Total Process</t>
+  </si>
+  <si>
+    <t>AWT (Average Waiting Time)</t>
+  </si>
+  <si>
+    <t>Total Waiting Time</t>
+  </si>
+  <si>
+    <t>ATAT (Average Turn Around Time)</t>
+  </si>
+  <si>
+    <t>Total Turn Around Time</t>
+  </si>
+  <si>
+    <t>Quantum Time</t>
   </si>
 </sst>
 </file>
@@ -3868,4 +3887,65 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2">
+        <v>786.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3">
+        <v>78637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4">
+        <v>798.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5">
+        <v>79895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Output/roundRobinOutput.xlsx
+++ b/Data/Output/roundRobinOutput.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="406">
   <si>
     <t>process</t>
   </si>
@@ -320,871 +320,880 @@
     <t>36</t>
   </si>
   <si>
-    <t>736</t>
+    <t>734</t>
+  </si>
+  <si>
+    <t>776</t>
+  </si>
+  <si>
+    <t>741</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>1152</t>
+  </si>
+  <si>
+    <t>1131</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>1164</t>
+  </si>
+  <si>
+    <t>1225</t>
+  </si>
+  <si>
+    <t>1184</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1049</t>
+  </si>
+  <si>
+    <t>1066</t>
+  </si>
+  <si>
+    <t>1065</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>1159</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>1174</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>764</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>769</t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>747</t>
+  </si>
+  <si>
+    <t>713</t>
+  </si>
+  <si>
+    <t>P27</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>1183</t>
+  </si>
+  <si>
+    <t>1243</t>
+  </si>
+  <si>
+    <t>1196</t>
+  </si>
+  <si>
+    <t>P28</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>P29</t>
+  </si>
+  <si>
+    <t>1087</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>P30</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>P31</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1169</t>
+  </si>
+  <si>
+    <t>1230</t>
+  </si>
+  <si>
+    <t>P32</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>1189</t>
+  </si>
+  <si>
+    <t>P33</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>1170</t>
+  </si>
+  <si>
+    <t>P34</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>P35</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>854</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>863</t>
+  </si>
+  <si>
+    <t>P36</t>
+  </si>
+  <si>
+    <t>838</t>
+  </si>
+  <si>
+    <t>890</t>
+  </si>
+  <si>
+    <t>849</t>
+  </si>
+  <si>
+    <t>P37</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>P38</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>1244</t>
+  </si>
+  <si>
+    <t>P39</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>967</t>
+  </si>
+  <si>
+    <t>986</t>
+  </si>
+  <si>
+    <t>P40</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>P41</t>
+  </si>
+  <si>
+    <t>1161</t>
+  </si>
+  <si>
+    <t>1217</t>
+  </si>
+  <si>
+    <t>1177</t>
+  </si>
+  <si>
+    <t>P42</t>
+  </si>
+  <si>
+    <t>1245</t>
+  </si>
+  <si>
+    <t>1197</t>
+  </si>
+  <si>
+    <t>P43</t>
+  </si>
+  <si>
+    <t>1069</t>
+  </si>
+  <si>
+    <t>1096</t>
+  </si>
+  <si>
+    <t>P44</t>
+  </si>
+  <si>
+    <t>1051</t>
+  </si>
+  <si>
+    <t>1071</t>
+  </si>
+  <si>
+    <t>1068</t>
+  </si>
+  <si>
+    <t>P45</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1118</t>
+  </si>
+  <si>
+    <t>1134</t>
+  </si>
+  <si>
+    <t>P46</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>644</t>
+  </si>
+  <si>
+    <t>614</t>
+  </si>
+  <si>
+    <t>P47</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>P48</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>P49</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>P50</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>P51</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>P52</t>
+  </si>
+  <si>
+    <t>1097</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
+    <t>P53</t>
+  </si>
+  <si>
+    <t>1191</t>
+  </si>
+  <si>
+    <t>1158</t>
+  </si>
+  <si>
+    <t>P54</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>P55</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>P56</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>669</t>
+  </si>
+  <si>
+    <t>P57</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>P58</t>
+  </si>
+  <si>
+    <t>962</t>
+  </si>
+  <si>
+    <t>1021</t>
+  </si>
+  <si>
+    <t>973</t>
+  </si>
+  <si>
+    <t>P59</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>1136</t>
+  </si>
+  <si>
+    <t>P60</t>
+  </si>
+  <si>
+    <t>1054</t>
+  </si>
+  <si>
+    <t>1077</t>
+  </si>
+  <si>
+    <t>1072</t>
+  </si>
+  <si>
+    <t>P61</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>P62</t>
+  </si>
+  <si>
+    <t>754</t>
+  </si>
+  <si>
+    <t>802</t>
+  </si>
+  <si>
+    <t>766</t>
+  </si>
+  <si>
+    <t>P63</t>
+  </si>
+  <si>
+    <t>1075</t>
+  </si>
+  <si>
+    <t>1098</t>
+  </si>
+  <si>
+    <t>1089</t>
+  </si>
+  <si>
+    <t>P64</t>
+  </si>
+  <si>
+    <t>885</t>
+  </si>
+  <si>
+    <t>937</t>
+  </si>
+  <si>
+    <t>892</t>
+  </si>
+  <si>
+    <t>P65</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>848</t>
+  </si>
+  <si>
+    <t>897</t>
+  </si>
+  <si>
+    <t>P66</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>596</t>
+  </si>
+  <si>
+    <t>P67</t>
+  </si>
+  <si>
+    <t>943</t>
+  </si>
+  <si>
+    <t>898</t>
+  </si>
+  <si>
+    <t>P68</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>P69</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>625</t>
+  </si>
+  <si>
+    <t>P70</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>P71</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>P72</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>P73</t>
+  </si>
+  <si>
+    <t>1185</t>
+  </si>
+  <si>
+    <t>1252</t>
+  </si>
+  <si>
+    <t>1204</t>
+  </si>
+  <si>
+    <t>P74</t>
+  </si>
+  <si>
+    <t>1157</t>
+  </si>
+  <si>
+    <t>P75</t>
+  </si>
+  <si>
+    <t>1088</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>P76</t>
+  </si>
+  <si>
+    <t>1141</t>
+  </si>
+  <si>
+    <t>P77</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>P78</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>P79</t>
+  </si>
+  <si>
+    <t>712</t>
+  </si>
+  <si>
+    <t>757</t>
+  </si>
+  <si>
+    <t>722</t>
+  </si>
+  <si>
+    <t>P80</t>
+  </si>
+  <si>
+    <t>1095</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>P81</t>
+  </si>
+  <si>
+    <t>1146</t>
+  </si>
+  <si>
+    <t>P82</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>P83</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1193</t>
+  </si>
+  <si>
+    <t>1257</t>
+  </si>
+  <si>
+    <t>1208</t>
+  </si>
+  <si>
+    <t>P84</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>P85</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>P86</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>P87</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>P88</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>P89</t>
+  </si>
+  <si>
+    <t>1176</t>
+  </si>
+  <si>
+    <t>1242</t>
+  </si>
+  <si>
+    <t>1195</t>
+  </si>
+  <si>
+    <t>P90</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>1062</t>
+  </si>
+  <si>
+    <t>P91</t>
+  </si>
+  <si>
+    <t>1148</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>P92</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>P93</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>1143</t>
+  </si>
+  <si>
+    <t>P94</t>
+  </si>
+  <si>
+    <t>613</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>P95</t>
+  </si>
+  <si>
+    <t>1192</t>
+  </si>
+  <si>
+    <t>1254</t>
+  </si>
+  <si>
+    <t>P96</t>
+  </si>
+  <si>
+    <t>1083</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>P97</t>
+  </si>
+  <si>
+    <t>P98</t>
+  </si>
+  <si>
+    <t>765</t>
   </si>
   <si>
     <t>778</t>
   </si>
   <si>
-    <t>743</t>
-  </si>
-  <si>
-    <t>P20</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1115</t>
-  </si>
-  <si>
-    <t>1152</t>
-  </si>
-  <si>
-    <t>1131</t>
-  </si>
-  <si>
-    <t>P21</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>P22</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>1164</t>
-  </si>
-  <si>
-    <t>1225</t>
-  </si>
-  <si>
-    <t>1184</t>
-  </si>
-  <si>
-    <t>P23</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1049</t>
-  </si>
-  <si>
-    <t>1066</t>
-  </si>
-  <si>
-    <t>1065</t>
-  </si>
-  <si>
-    <t>P24</t>
-  </si>
-  <si>
-    <t>1159</t>
-  </si>
-  <si>
-    <t>1213</t>
-  </si>
-  <si>
-    <t>1174</t>
-  </si>
-  <si>
-    <t>P25</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>764</t>
-  </si>
-  <si>
-    <t>807</t>
-  </si>
-  <si>
-    <t>769</t>
-  </si>
-  <si>
-    <t>P26</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>702</t>
-  </si>
-  <si>
-    <t>747</t>
-  </si>
-  <si>
-    <t>713</t>
-  </si>
-  <si>
-    <t>P27</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>1183</t>
-  </si>
-  <si>
-    <t>1243</t>
-  </si>
-  <si>
-    <t>1196</t>
-  </si>
-  <si>
-    <t>P28</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>P29</t>
-  </si>
-  <si>
-    <t>1087</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>P30</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>P31</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1169</t>
-  </si>
-  <si>
-    <t>1230</t>
-  </si>
-  <si>
-    <t>P32</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>1235</t>
-  </si>
-  <si>
-    <t>1189</t>
-  </si>
-  <si>
-    <t>P33</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>1150</t>
-  </si>
-  <si>
-    <t>1206</t>
-  </si>
-  <si>
-    <t>1170</t>
-  </si>
-  <si>
-    <t>P34</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>P35</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>854</t>
-  </si>
-  <si>
-    <t>906</t>
-  </si>
-  <si>
-    <t>863</t>
-  </si>
-  <si>
-    <t>P36</t>
-  </si>
-  <si>
-    <t>838</t>
-  </si>
-  <si>
-    <t>890</t>
-  </si>
-  <si>
-    <t>849</t>
-  </si>
-  <si>
-    <t>P37</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>P38</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>1244</t>
-  </si>
-  <si>
-    <t>P39</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>943</t>
-  </si>
-  <si>
-    <t>962</t>
-  </si>
-  <si>
-    <t>P40</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>P41</t>
-  </si>
-  <si>
-    <t>1161</t>
-  </si>
-  <si>
-    <t>1217</t>
-  </si>
-  <si>
-    <t>1177</t>
-  </si>
-  <si>
-    <t>P42</t>
-  </si>
-  <si>
-    <t>1245</t>
-  </si>
-  <si>
-    <t>1197</t>
-  </si>
-  <si>
-    <t>P43</t>
-  </si>
-  <si>
-    <t>1069</t>
-  </si>
-  <si>
-    <t>1096</t>
-  </si>
-  <si>
-    <t>P44</t>
-  </si>
-  <si>
-    <t>1051</t>
-  </si>
-  <si>
-    <t>1071</t>
-  </si>
-  <si>
-    <t>1068</t>
-  </si>
-  <si>
-    <t>P45</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>1118</t>
-  </si>
-  <si>
-    <t>1134</t>
-  </si>
-  <si>
-    <t>P46</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>607</t>
-  </si>
-  <si>
-    <t>644</t>
-  </si>
-  <si>
-    <t>614</t>
-  </si>
-  <si>
-    <t>P47</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>P48</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>P49</t>
-  </si>
-  <si>
-    <t>431</t>
-  </si>
-  <si>
-    <t>453</t>
-  </si>
-  <si>
-    <t>437</t>
-  </si>
-  <si>
-    <t>P50</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>489</t>
-  </si>
-  <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>P51</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>346</t>
-  </si>
-  <si>
-    <t>P52</t>
-  </si>
-  <si>
-    <t>1097</t>
-  </si>
-  <si>
-    <t>1132</t>
-  </si>
-  <si>
-    <t>P53</t>
-  </si>
-  <si>
-    <t>1191</t>
-  </si>
-  <si>
-    <t>1158</t>
-  </si>
-  <si>
-    <t>P54</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>P55</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>P56</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>669</t>
-  </si>
-  <si>
-    <t>P57</t>
-  </si>
-  <si>
-    <t>381</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>387</t>
-  </si>
-  <si>
-    <t>P58</t>
-  </si>
-  <si>
-    <t>1021</t>
-  </si>
-  <si>
-    <t>973</t>
-  </si>
-  <si>
-    <t>P59</t>
-  </si>
-  <si>
-    <t>1122</t>
-  </si>
-  <si>
-    <t>1136</t>
-  </si>
-  <si>
-    <t>P60</t>
-  </si>
-  <si>
-    <t>1054</t>
-  </si>
-  <si>
-    <t>1077</t>
-  </si>
-  <si>
-    <t>1072</t>
-  </si>
-  <si>
-    <t>P61</t>
-  </si>
-  <si>
-    <t>1108</t>
-  </si>
-  <si>
-    <t>P62</t>
-  </si>
-  <si>
-    <t>754</t>
-  </si>
-  <si>
-    <t>802</t>
-  </si>
-  <si>
-    <t>766</t>
-  </si>
-  <si>
-    <t>P63</t>
-  </si>
-  <si>
-    <t>1075</t>
-  </si>
-  <si>
-    <t>1098</t>
-  </si>
-  <si>
-    <t>1089</t>
-  </si>
-  <si>
-    <t>P64</t>
-  </si>
-  <si>
-    <t>885</t>
-  </si>
-  <si>
-    <t>937</t>
-  </si>
-  <si>
-    <t>892</t>
-  </si>
-  <si>
-    <t>P65</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>848</t>
-  </si>
-  <si>
-    <t>897</t>
-  </si>
-  <si>
-    <t>P66</t>
-  </si>
-  <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>562</t>
-  </si>
-  <si>
-    <t>563</t>
-  </si>
-  <si>
-    <t>P67</t>
-  </si>
-  <si>
-    <t>898</t>
-  </si>
-  <si>
-    <t>P68</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>605</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>P69</t>
-  </si>
-  <si>
-    <t>655</t>
-  </si>
-  <si>
-    <t>625</t>
-  </si>
-  <si>
-    <t>P70</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>495</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>P71</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>P72</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>P73</t>
-  </si>
-  <si>
-    <t>1185</t>
-  </si>
-  <si>
-    <t>1252</t>
-  </si>
-  <si>
-    <t>1204</t>
-  </si>
-  <si>
-    <t>P74</t>
-  </si>
-  <si>
-    <t>1157</t>
-  </si>
-  <si>
-    <t>P75</t>
-  </si>
-  <si>
-    <t>1088</t>
-  </si>
-  <si>
-    <t>1107</t>
-  </si>
-  <si>
-    <t>P76</t>
-  </si>
-  <si>
-    <t>1141</t>
-  </si>
-  <si>
-    <t>P77</t>
-  </si>
-  <si>
-    <t>551</t>
-  </si>
-  <si>
-    <t>583</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>P78</t>
-  </si>
-  <si>
-    <t>1207</t>
-  </si>
-  <si>
-    <t>P79</t>
-  </si>
-  <si>
-    <t>714</t>
-  </si>
-  <si>
-    <t>759</t>
-  </si>
-  <si>
-    <t>724</t>
-  </si>
-  <si>
-    <t>P80</t>
-  </si>
-  <si>
-    <t>1095</t>
-  </si>
-  <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>P81</t>
-  </si>
-  <si>
-    <t>1146</t>
-  </si>
-  <si>
-    <t>P82</t>
-  </si>
-  <si>
-    <t>1058</t>
-  </si>
-  <si>
-    <t>1080</t>
-  </si>
-  <si>
-    <t>P83</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>1193</t>
-  </si>
-  <si>
-    <t>1257</t>
-  </si>
-  <si>
-    <t>1208</t>
-  </si>
-  <si>
-    <t>P84</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>P85</t>
-  </si>
-  <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>P86</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>524</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>P87</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>P88</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>P89</t>
-  </si>
-  <si>
-    <t>1176</t>
-  </si>
-  <si>
-    <t>1242</t>
-  </si>
-  <si>
-    <t>1195</t>
-  </si>
-  <si>
-    <t>P90</t>
-  </si>
-  <si>
-    <t>1045</t>
-  </si>
-  <si>
-    <t>1062</t>
-  </si>
-  <si>
-    <t>P91</t>
-  </si>
-  <si>
-    <t>1148</t>
-  </si>
-  <si>
-    <t>1129</t>
-  </si>
-  <si>
-    <t>P92</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>P93</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>1126</t>
-  </si>
-  <si>
-    <t>1143</t>
-  </si>
-  <si>
-    <t>P94</t>
-  </si>
-  <si>
-    <t>613</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>P95</t>
-  </si>
-  <si>
-    <t>1192</t>
-  </si>
-  <si>
-    <t>1254</t>
-  </si>
-  <si>
-    <t>P96</t>
-  </si>
-  <si>
-    <t>1083</t>
-  </si>
-  <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>P97</t>
-  </si>
-  <si>
-    <t>P98</t>
-  </si>
-  <si>
-    <t>749</t>
-  </si>
-  <si>
-    <t>750</t>
+    <t>779</t>
   </si>
   <si>
     <t>P99</t>
@@ -2909,18 +2918,18 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="F59" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G59" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B60" t="s">
         <v>95</v>
@@ -2932,18 +2941,18 @@
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F60" t="s">
         <v>127</v>
       </c>
       <c r="G60" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B61" t="s">
         <v>112</v>
@@ -2955,18 +2964,18 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F61" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G61" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B62" t="s">
         <v>43</v>
@@ -2978,10 +2987,10 @@
         <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G62" t="s">
         <v>202</v>
@@ -2989,7 +2998,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B63" t="s">
         <v>166</v>
@@ -3001,18 +3010,18 @@
         <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F63" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G63" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B64" t="s">
         <v>30</v>
@@ -3024,18 +3033,18 @@
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F64" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G64" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B65" t="s">
         <v>42</v>
@@ -3047,21 +3056,21 @@
         <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F65" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G65" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B66" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C66" t="s">
         <v>49</v>
@@ -3070,10 +3079,10 @@
         <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F66" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G66" t="s">
         <v>39</v>
@@ -3081,7 +3090,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
@@ -3093,18 +3102,18 @@
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F67" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G67" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B68" t="s">
         <v>42</v>
@@ -3116,21 +3125,21 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F68" t="s">
-        <v>189</v>
+        <v>290</v>
       </c>
       <c r="G68" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B69" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C69" t="s">
         <v>30</v>
@@ -3139,18 +3148,18 @@
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F69" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G69" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B70" t="s">
         <v>212</v>
@@ -3165,15 +3174,15 @@
         <v>215</v>
       </c>
       <c r="F70" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G70" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B71" t="s">
         <v>86</v>
@@ -3185,18 +3194,18 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F71" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G71" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
@@ -3211,15 +3220,15 @@
         <v>172</v>
       </c>
       <c r="F72" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G72" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B73" t="s">
         <v>60</v>
@@ -3234,15 +3243,15 @@
         <v>219</v>
       </c>
       <c r="F73" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G73" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B74" t="s">
         <v>185</v>
@@ -3254,18 +3263,18 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F74" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G74" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B75" t="s">
         <v>208</v>
@@ -3277,10 +3286,10 @@
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F75" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G75" t="s">
         <v>27</v>
@@ -3288,7 +3297,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B76" t="s">
         <v>9</v>
@@ -3300,18 +3309,18 @@
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F76" t="s">
         <v>56</v>
       </c>
       <c r="G76" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B77" t="s">
         <v>86</v>
@@ -3323,18 +3332,18 @@
         <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F77" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G77" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B78" t="s">
         <v>95</v>
@@ -3346,18 +3355,18 @@
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F78" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G78" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B79" t="s">
         <v>131</v>
@@ -3372,7 +3381,7 @@
         <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G79" t="s">
         <v>159</v>
@@ -3380,7 +3389,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B80" t="s">
         <v>100</v>
@@ -3392,18 +3401,18 @@
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F80" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G80" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
@@ -3415,18 +3424,18 @@
         <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F81" t="s">
         <v>96</v>
       </c>
       <c r="G81" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B82" t="s">
         <v>183</v>
@@ -3438,7 +3447,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F82" t="s">
         <v>199</v>
@@ -3449,7 +3458,7 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B83" t="s">
         <v>60</v>
@@ -3461,21 +3470,21 @@
         <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F83" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G83" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B84" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C84" t="s">
         <v>9</v>
@@ -3484,18 +3493,18 @@
         <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F84" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G84" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B85" t="s">
         <v>112</v>
@@ -3507,18 +3516,18 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F85" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G85" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B86" t="s">
         <v>30</v>
@@ -3530,21 +3539,21 @@
         <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F86" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G86" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B87" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C87" t="s">
         <v>65</v>
@@ -3553,18 +3562,18 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F87" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G87" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B88" t="s">
         <v>65</v>
@@ -3582,12 +3591,12 @@
         <v>153</v>
       </c>
       <c r="G88" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B89" t="s">
         <v>65</v>
@@ -3599,18 +3608,18 @@
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F89" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G89" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B90" t="s">
         <v>141</v>
@@ -3622,18 +3631,18 @@
         <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F90" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G90" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B91" t="s">
         <v>188</v>
@@ -3645,18 +3654,18 @@
         <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F91" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G91" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B92" t="s">
         <v>86</v>
@@ -3668,18 +3677,18 @@
         <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F92" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G92" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
@@ -3691,21 +3700,21 @@
         <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F93" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G93" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B94" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C94" t="s">
         <v>158</v>
@@ -3714,21 +3723,21 @@
         <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F94" t="s">
         <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B95" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C95" t="s">
         <v>20</v>
@@ -3737,18 +3746,18 @@
         <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F95" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G95" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B96" t="s">
         <v>185</v>
@@ -3760,10 +3769,10 @@
         <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F96" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G96" t="s">
         <v>168</v>
@@ -3771,7 +3780,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B97" t="s">
         <v>31</v>
@@ -3783,10 +3792,10 @@
         <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F97" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G97" t="s">
         <v>151</v>
@@ -3794,7 +3803,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B98" t="s">
         <v>212</v>
@@ -3806,18 +3815,18 @@
         <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F98" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G98" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -3829,18 +3838,18 @@
         <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>101</v>
+        <v>390</v>
       </c>
       <c r="F99" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G99" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B100" t="s">
         <v>106</v>
@@ -3852,18 +3861,18 @@
         <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F100" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G100" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B101" t="s">
         <v>100</v>
@@ -3878,10 +3887,10 @@
         <v>167</v>
       </c>
       <c r="F101" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G101" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -3899,7 +3908,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B1">
         <v>100</v>
@@ -3907,39 +3916,39 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B2">
-        <v>786.37</v>
+        <v>787.17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B3">
-        <v>78637</v>
+        <v>78717</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B4">
-        <v>798.95</v>
+        <v>799.75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B5">
-        <v>79895</v>
+        <v>79975</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B6">
         <v>12</v>
